--- a/SCCPs_scores.xlsx
+++ b/SCCPs_scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arie/Dropbox (UFL)/@Projects/2019.03 TARTARE/02. Risk ranking/RR_atr_deaths/CCP_evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariehavelaar/UFL Dropbox/Arie Havelaar/@Projects/ETH-TechApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0B0D1F-2E0B-9040-9D08-E9704FD4986A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D335413-4D66-B74E-BF9F-6BB7A1C174D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27560" windowHeight="16940" xr2:uid="{D21FC9E9-D3CB-9C49-B67B-42346A3F2885}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27560" windowHeight="16940" activeTab="3" xr2:uid="{D21FC9E9-D3CB-9C49-B67B-42346A3F2885}"/>
   </bookViews>
   <sheets>
     <sheet name="red_meat" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>Clean vehicles</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>Worker Hygiene</t>
-  </si>
-  <si>
-    <t>Sanitizing Vehicles &amp; Containers</t>
   </si>
   <si>
     <t>Improved infrastructure</t>
@@ -290,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -330,7 +327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -436,7 +433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -578,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA04F6F-8CD0-0E43-AE29-4C72F354437E}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1372,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF84B0B-5550-364A-BE3E-1487A9564595}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1470,7 +1467,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1.5</v>
@@ -1487,7 +1484,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>1.5</v>
